--- a/Artifact Brawler.xlsx
+++ b/Artifact Brawler.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianpe\Desktop\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\SFML Projects\prototype24-yellow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4512A46-C191-4144-BE09-98131EE46CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717D1BF-FC13-46F9-AFF6-776C7EDFDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="e3XNt+Y+1D3+D24i3JY7ZfvaUeJ+Ficv5JqUYqK3GxA1BYB7FHhPYhxuoVdsKOXJwPbSFyACJvbToUlhxA/0dg==" workbookSaltValue="bwSytUchgVbQ5tn7OpDLYQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B114BF61-C9F1-47F8-B51B-C5362F104DFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B114BF61-C9F1-47F8-B51B-C5362F104DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -441,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,44 +594,44 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" customWidth="1"/>
-    <col min="8" max="11" width="4.26953125" customWidth="1"/>
-    <col min="14" max="17" width="3.81640625" customWidth="1"/>
+    <col min="1" max="2" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="11" width="4.28515625" customWidth="1"/>
+    <col min="14" max="17" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="N1" s="8">
         <f>SUM(N4:N13)</f>
-        <v>0.28839999999999999</v>
+        <v>0.31750000000000006</v>
       </c>
       <c r="O1" s="8">
         <f t="shared" ref="O1:Q1" si="0">SUM(O4:O13)</f>
-        <v>0.23640000000000003</v>
+        <v>0.22741000000000003</v>
       </c>
       <c r="P1" s="8">
         <f t="shared" si="0"/>
-        <v>0.23760000000000003</v>
+        <v>0.22741000000000003</v>
       </c>
       <c r="Q1" s="8">
         <f t="shared" si="0"/>
-        <v>0.23760000000000003</v>
+        <v>0.22741000000000003</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>SUM(C4:C23)</f>
         <v>50</v>
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -697,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -776,42 +776,42 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="J5" s="9">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="K5" s="9">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ref="L5:L13" si="4">IF(SUM(H5:K5)&lt;=1,SUM(H5:K5),"error")</f>
-        <v>1</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ref="N5:N13" si="5">(H5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" ref="O5:O13" si="6">(I5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>3.3000000000000002E-2</v>
+        <v>4.9950000000000001E-2</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" ref="P5:P13" si="7">(J5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>3.3000000000000002E-2</v>
+        <v>4.9950000000000001E-2</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" ref="Q5:Q13" si="8">(K5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>4.9950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="9">
         <v>0.25</v>
@@ -959,22 +959,22 @@
       </c>
       <c r="N8" s="8">
         <f t="shared" si="5"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="6"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="7"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="8"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1113,16 +1113,16 @@
         <v>15</v>
       </c>
       <c r="H11" s="9">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="J11" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K11" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="4"/>
@@ -1130,22 +1130,22 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="5"/>
-        <v>3.7499999999999999E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="6"/>
-        <v>3.7499999999999999E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="7"/>
-        <v>3.7499999999999999E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="8"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1227,39 +1227,39 @@
         <v>12</v>
       </c>
       <c r="H13" s="9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.32</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="J13" s="9">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="K13" s="9">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="5"/>
-        <v>2.3999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="6"/>
-        <v>3.8399999999999997E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="7"/>
-        <v>3.9599999999999996E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="8"/>
-        <v>3.9599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3.9960000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1291,12 +1291,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
